--- a/factoresA2 100FINAL.xlsx
+++ b/factoresA2 100FINAL.xlsx
@@ -579,22 +579,22 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>89.496</v>
+        <v>70.9425</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>89.5286</v>
       </c>
       <c r="H2">
-        <v>5.5039</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>89.52889999999999</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>19410.07788590452</v>
+        <v>19209.42470903333</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>91.64660000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>31.6273</v>
+        <v>18.3334</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>91.6474</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>21232.38708343933</v>
+        <v>21099.44836945346</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>87.1292</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>26.972</v>
+        <v>22.7181</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>87.12479999999999</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>299.185</v>
       </c>
       <c r="Q4">
-        <v>15228.97046913834</v>
+        <v>15186.43103836959</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>92.1467</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30.6058</v>
+        <v>16.3175</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>92.1417</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21227.49335778847</v>
+        <v>21084.61019284017</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         <v>104.5617</v>
       </c>
       <c r="E6">
-        <v>40.4382</v>
+        <v>16.5567</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>89.47020000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>89.4114</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>400</v>
       </c>
       <c r="Q6">
-        <v>21254.38237798987</v>
+        <v>21165.5668858346</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>90.3473</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>34.2097</v>
+        <v>23.5825</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>90.2799</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>21245.56234492981</v>
+        <v>21139.2907415013</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1275,13 +1275,13 @@
         <v>106.8243</v>
       </c>
       <c r="E8">
-        <v>38.1756</v>
+        <v>9.778700000000001</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>91.7175</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>91.6795</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>21231.75679511312</v>
+        <v>21097.78689278056</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>92.0941</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>30.6979</v>
+        <v>16.5232</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>92.0806</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21227.97904605361</v>
+        <v>21086.23260410642</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>90.32599999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>34.2538</v>
+        <v>24.3738</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>89.55410000000001</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>21245.76697274964</v>
+        <v>21146.96695420619</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1752,22 +1752,22 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>90.8094</v>
+        <v>68.3467</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>90.83</v>
       </c>
       <c r="H2">
-        <v>4.1905</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>90.8232</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>19383.81008194885</v>
+        <v>19183.46749510474</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>93.13030000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>28.6463</v>
+        <v>12.391</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>93.125</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>21217.55094062233</v>
+        <v>21054.99813617826</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         <v>103.3936</v>
       </c>
       <c r="E4">
-        <v>25.1504</v>
+        <v>18.5272</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>88.3203</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>88.30289999999999</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>298.544</v>
       </c>
       <c r="Q4">
-        <v>15178.70382089133</v>
+        <v>15112.47174874254</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         <v>108.6535</v>
       </c>
       <c r="E5">
-        <v>36.3464</v>
+        <v>4.2514</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>93.5558</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>93.5393</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21213.46446306262</v>
+        <v>21042.51430982202</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>106.5382</v>
       </c>
       <c r="E6">
-        <v>38.4617</v>
+        <v>10.6245</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>91.4491</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>91.3882</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>400</v>
       </c>
       <c r="Q6">
-        <v>21234.61729735571</v>
+        <v>21106.24535658957</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>92.60760000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>29.7152</v>
+        <v>14.5689</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>92.53870000000001</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>21223.02156141709</v>
+        <v>21071.55852690656</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>93.78400000000001</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>27.3303</v>
+        <v>9.735900000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>93.8104</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>21211.09845785613</v>
+        <v>21035.15479231487</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>93.6153</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>27.6629</v>
+        <v>10.4295</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>93.6182</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21212.75228407495</v>
+        <v>21040.41796575713</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>91.9361</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>31.0572</v>
+        <v>17.8123</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>91.30889999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>21229.73957039869</v>
+        <v>21097.29055110364</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2931,16 +2931,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>92.40349999999999</v>
       </c>
       <c r="H2">
-        <v>2.6165</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>72.8327</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>92.38039999999999</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>19352.32951967591</v>
+        <v>19152.16090899727</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>94.92059999999999</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>25.0601</v>
+        <v>5.2374</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>94.90219999999999</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>21199.62938818546</v>
+        <v>21001.40243867178</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -3157,13 +3157,13 @@
         <v>104.8102</v>
       </c>
       <c r="E4">
-        <v>23.2217</v>
+        <v>13.7697</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>89.7419</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>89.7102</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>298.032</v>
       </c>
       <c r="Q4">
-        <v>15133.81747628778</v>
+        <v>15039.29710653395</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3273,13 +3273,13 @@
         <v>110.2722</v>
       </c>
       <c r="E5">
-        <v>95.1504</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>95.1735</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>24.5773</v>
+        <v>99.4059</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>95.14830000000001</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21197.27712554433</v>
+        <v>20994.05948297712</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>25.586</v>
+        <v>6.3059</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>21202.32256944219</v>
+        <v>21009.52249123136</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>110.0625</v>
       </c>
       <c r="E8">
-        <v>34.9374</v>
+        <v>0.0426</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>94.9669</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>94.928</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>21199.37448015165</v>
+        <v>21000.42568145769</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         <v>110.4395</v>
       </c>
       <c r="E9">
-        <v>95.31780000000001</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>95.3326</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>24.2426</v>
+        <v>98.88549999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>95.3424</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21195.60441638114</v>
+        <v>20988.85514939613</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>108.9453</v>
       </c>
       <c r="E10">
-        <v>36.0546</v>
+        <v>3.8132</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>93.86669999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>93.37479999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>21210.54589557706</v>
+        <v>21038.13203917407</v>
       </c>
       <c r="R10">
         <v>0</v>
